--- a/database/industries/siman/sekord/eps.xlsx
+++ b/database/industries/siman/sekord/eps.xlsx
@@ -34,6 +34,9 @@
     <t>capital_now</t>
   </si>
   <si>
+    <t>1401</t>
+  </si>
+  <si>
     <t>1400</t>
   </si>
   <si>
@@ -46,7 +49,7 @@
     <t>1397</t>
   </si>
   <si>
-    <t>1396</t>
+    <t>1401/09/12</t>
   </si>
   <si>
     <t>1400/08/26</t>
@@ -59,9 +62,6 @@
   </si>
   <si>
     <t>1397/10/06</t>
-  </si>
-  <si>
-    <t>1396/10/09</t>
   </si>
 </sst>
 </file>
@@ -453,10 +453,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="D2">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="E2">
         <v>2200000</v>
@@ -473,10 +473,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>207</v>
+        <v>326</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E3">
         <v>2200000</v>
@@ -493,7 +493,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -513,13 +513,13 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>-257</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1222611</v>
+        <v>2200000</v>
       </c>
       <c r="F5">
         <v>2200000</v>
@@ -533,13 +533,13 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>-257</v>
+        <v>257</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1200000</v>
+        <v>1222611</v>
       </c>
       <c r="F6">
         <v>2200000</v>
